--- a/scraped_data.xlsx
+++ b/scraped_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erick\PycharmProjects\webScrapingTSE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D234A7-24B7-4937-A879-E2708C2D5FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA8128A-552B-4256-8AF2-A369CDCC7392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -397,12 +397,15 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A2" sqref="A2:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">

--- a/scraped_data.xlsx
+++ b/scraped_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erick\PycharmProjects\webScrapingTSE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA8128A-552B-4256-8AF2-A369CDCC7392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA6F118-0053-4A1F-881A-7AE85D6F1C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,18 +20,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Nombre Completo</t>
-  </si>
-  <si>
-    <t>Fecha Nacimiento</t>
-  </si>
-  <si>
-    <t>Nacionalidad</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Cedula</t>
+  </si>
+  <si>
+    <t>Nombre:</t>
+  </si>
+  <si>
+    <t>Primer Apellido:</t>
+  </si>
+  <si>
+    <t>Segundo Apellido:</t>
+  </si>
+  <si>
+    <t>Fecha de Nacimiento:</t>
+  </si>
+  <si>
+    <t>Nacionalidad:</t>
+  </si>
+  <si>
+    <t>Fallecido/a:</t>
   </si>
 </sst>
 </file>
@@ -394,21 +403,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D37"/>
+      <selection activeCell="G2" sqref="A2:G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,6 +432,15 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/scraped_data.xlsx
+++ b/scraped_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erick\PycharmProjects\webScrapingTSE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA6F118-0053-4A1F-881A-7AE85D6F1C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525CBBDA-47CE-463D-A69D-8065CB499421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -405,7 +405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="G2" sqref="A2:G38"/>
     </sheetView>
   </sheetViews>
